--- a/ann22t_11.xlsx
+++ b/ann22t_11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\codek\Documents\college stuff\PYTHON2\miniproject2DR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C5A518-B1C1-48F8-83AA-7B744174DB66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1260CB08-D0D2-4F60-888B-FF2797BC1F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -2387,7 +2387,7 @@
   <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" colorId="22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77734375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
